--- a/ITパスポート問題集.xlsx
+++ b/ITパスポート問題集.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73ca744b6d6b4b9f/デスクトップ/ITパスポート/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{D2DCAEAF-4D05-42EB-96F5-42424CBA2BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5250E6A-06B0-4701-9A10-7A1FBF34EE44}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{D2DCAEAF-4D05-42EB-96F5-42424CBA2BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FC2A789-2B28-4AD0-937F-0681A7ED0236}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="612" windowWidth="11532" windowHeight="12348" xr2:uid="{942B75E7-3C20-47B7-9DFA-B923100921F6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{942B75E7-3C20-47B7-9DFA-B923100921F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -149,19 +149,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>歌舞しk会社の最高意思決定機関は（　　　　　）である。</t>
-    <rPh sb="0" eb="2">
-      <t>カブ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガイシャ</t>
-    </rPh>
-    <rPh sb="7" eb="15">
-      <t>サイコウイシケッテイキカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>株主総会</t>
     <rPh sb="0" eb="4">
       <t>カブヌシソウカイ</t>
@@ -307,6 +294,19 @@
   </si>
   <si>
     <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株式会社の最高意思決定機関は（　　　　　）である。</t>
+    <rPh sb="0" eb="2">
+      <t>カブシキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガイシャ</t>
+    </rPh>
+    <rPh sb="5" eb="13">
+      <t>サイコウイシケッテイキカン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -676,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F6A153-5CD5-4C43-8A40-DCC2DF8EA836}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -689,7 +689,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -758,10 +758,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="90" x14ac:dyDescent="0.45">
@@ -772,22 +772,22 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="126" x14ac:dyDescent="0.45">
@@ -798,10 +798,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="126" x14ac:dyDescent="0.45">
@@ -812,16 +812,16 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
